--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1400.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1400.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.510329439832199</v>
+        <v>1.185132741928101</v>
       </c>
       <c r="B1">
-        <v>2.419624854885634</v>
+        <v>2.028560876846313</v>
       </c>
       <c r="C1">
-        <v>2.801408309870746</v>
+        <v>6.299643516540527</v>
       </c>
       <c r="D1">
-        <v>3.232140508157221</v>
+        <v>2.307458162307739</v>
       </c>
       <c r="E1">
-        <v>1.724044269929379</v>
+        <v>1.197398900985718</v>
       </c>
     </row>
   </sheetData>
